--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3802.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3802.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.862445804749102</v>
+        <v>1.593051075935364</v>
       </c>
       <c r="B1">
-        <v>2.06380267729915</v>
+        <v>5.044400691986084</v>
       </c>
       <c r="C1">
-        <v>2.455735408755907</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>4.333477723129292</v>
+        <v>2.771298170089722</v>
       </c>
       <c r="E1">
-        <v>1.480830548834797</v>
+        <v>1.69006884098053</v>
       </c>
     </row>
   </sheetData>
